--- a/data/tabla 03-15.xlsx
+++ b/data/tabla 03-15.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="bh" sheetId="1" r:id="rId2"/>
+    <sheet name="cv" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="14">
   <si>
     <t>2010</t>
   </si>
@@ -64,10 +65,2158 @@
   <numFmts count="1">
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="359">
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
+  <fonts count="896">
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1502,7 +3651,7 @@
       <name val="Times New Roman"/>
     </font>
   </fonts>
-  <fills count="78">
+  <fills count="192">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1889,8 +4038,578 @@
         <fgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="287">
+  <borders count="716">
     <border>
       <left/>
       <right/>
@@ -4120,11 +6839,3356 @@
       <bottom style="none"/>
       <diagonal style="none"/>
     </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="716">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -5267,6 +11331,1722 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="358" fillId="77" borderId="286" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="359" fillId="0" borderId="287" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="360" fillId="0" borderId="288" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="361" fillId="0" borderId="289" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="362" fillId="0" borderId="290" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="363" fillId="0" borderId="291" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="364" fillId="0" borderId="292" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="365" fillId="0" borderId="293" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="366" fillId="0" borderId="294" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="367" fillId="0" borderId="295" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="368" fillId="0" borderId="296" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="369" fillId="0" borderId="297" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="370" fillId="0" borderId="298" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="371" fillId="0" borderId="299" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="372" fillId="0" borderId="300" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="373" fillId="0" borderId="301" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="374" fillId="0" borderId="302" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="375" fillId="0" borderId="303" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="376" fillId="0" borderId="304" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="377" fillId="0" borderId="305" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="378" fillId="0" borderId="306" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="379" fillId="0" borderId="307" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="380" fillId="0" borderId="308" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="381" fillId="0" borderId="309" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="382" fillId="0" borderId="310" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="383" fillId="0" borderId="311" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="384" fillId="0" borderId="312" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="385" fillId="0" borderId="313" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="386" fillId="0" borderId="314" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="387" fillId="0" borderId="315" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="388" fillId="0" borderId="316" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="389" fillId="0" borderId="317" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="390" fillId="0" borderId="318" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="391" fillId="0" borderId="319" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="392" fillId="0" borderId="320" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="393" fillId="0" borderId="321" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="394" fillId="0" borderId="322" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="395" fillId="0" borderId="323" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="396" fillId="0" borderId="324" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="397" fillId="0" borderId="325" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="398" fillId="0" borderId="326" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="399" fillId="0" borderId="327" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="400" fillId="0" borderId="328" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="401" fillId="0" borderId="329" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="402" fillId="0" borderId="330" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="403" fillId="0" borderId="331" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="404" fillId="0" borderId="332" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="405" fillId="0" borderId="333" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="406" fillId="0" borderId="334" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="407" fillId="0" borderId="335" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="408" fillId="0" borderId="336" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="409" fillId="0" borderId="337" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="410" fillId="0" borderId="338" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="411" fillId="0" borderId="339" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="412" fillId="0" borderId="340" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="413" fillId="0" borderId="341" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="414" fillId="0" borderId="342" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="415" fillId="0" borderId="343" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="416" fillId="0" borderId="344" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="417" fillId="0" borderId="345" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="418" fillId="0" borderId="346" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="419" fillId="0" borderId="347" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="420" fillId="0" borderId="348" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="421" fillId="0" borderId="349" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="422" fillId="0" borderId="350" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="423" fillId="0" borderId="351" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="424" fillId="0" borderId="352" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="425" fillId="0" borderId="353" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="426" fillId="0" borderId="354" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="427" fillId="0" borderId="355" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="429" fillId="0" borderId="356" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="431" fillId="0" borderId="357" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="433" fillId="0" borderId="358" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="435" fillId="0" borderId="359" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="437" fillId="0" borderId="360" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="439" fillId="0" borderId="361" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="441" fillId="0" borderId="362" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="443" fillId="0" borderId="363" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="445" fillId="0" borderId="364" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="447" fillId="0" borderId="365" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="449" fillId="0" borderId="366" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="451" fillId="0" borderId="367" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="453" fillId="0" borderId="368" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="455" fillId="0" borderId="369" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="457" fillId="0" borderId="370" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="459" fillId="0" borderId="371" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="461" fillId="0" borderId="372" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="463" fillId="0" borderId="373" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="465" fillId="0" borderId="374" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="467" fillId="0" borderId="375" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="469" fillId="0" borderId="376" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="471" fillId="0" borderId="377" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="473" fillId="0" borderId="378" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="475" fillId="0" borderId="379" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="477" fillId="0" borderId="380" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="479" fillId="0" borderId="381" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="481" fillId="0" borderId="382" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="483" fillId="0" borderId="383" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="485" fillId="0" borderId="384" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="487" fillId="0" borderId="385" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="489" fillId="0" borderId="386" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="491" fillId="0" borderId="387" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="493" fillId="0" borderId="388" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="495" fillId="0" borderId="389" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="497" fillId="0" borderId="390" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="499" fillId="0" borderId="391" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="500" fillId="78" borderId="392" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="501" fillId="79" borderId="393" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="502" fillId="80" borderId="394" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="503" fillId="81" borderId="395" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="504" fillId="82" borderId="396" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="505" fillId="83" borderId="397" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="506" fillId="84" borderId="398" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="507" fillId="85" borderId="399" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="508" fillId="86" borderId="400" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="509" fillId="87" borderId="401" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="510" fillId="88" borderId="402" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="511" fillId="89" borderId="403" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="512" fillId="90" borderId="404" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="513" fillId="91" borderId="405" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="514" fillId="92" borderId="406" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="515" fillId="93" borderId="407" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="516" fillId="94" borderId="408" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="517" fillId="95" borderId="409" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="518" fillId="96" borderId="410" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="519" fillId="97" borderId="411" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="520" fillId="98" borderId="412" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="521" fillId="99" borderId="413" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="522" fillId="100" borderId="414" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="523" fillId="101" borderId="415" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="524" fillId="102" borderId="416" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="525" fillId="103" borderId="417" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="526" fillId="104" borderId="418" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="527" fillId="105" borderId="419" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="528" fillId="106" borderId="420" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="529" fillId="107" borderId="421" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="530" fillId="108" borderId="422" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="531" fillId="109" borderId="423" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="532" fillId="110" borderId="424" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="533" fillId="111" borderId="425" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="534" fillId="112" borderId="426" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="535" fillId="113" borderId="427" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="536" fillId="114" borderId="428" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="537" fillId="115" borderId="429" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="538" fillId="0" borderId="430" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="539" fillId="0" borderId="431" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="540" fillId="0" borderId="432" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="541" fillId="0" borderId="433" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="542" fillId="0" borderId="434" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="543" fillId="0" borderId="435" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="544" fillId="0" borderId="436" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="545" fillId="0" borderId="437" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="546" fillId="0" borderId="438" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="547" fillId="0" borderId="439" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="548" fillId="0" borderId="440" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="549" fillId="0" borderId="441" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="550" fillId="0" borderId="442" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="551" fillId="0" borderId="443" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="552" fillId="0" borderId="444" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="553" fillId="0" borderId="445" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="554" fillId="0" borderId="446" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="555" fillId="0" borderId="447" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="556" fillId="0" borderId="448" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="557" fillId="0" borderId="449" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="558" fillId="0" borderId="450" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="559" fillId="0" borderId="451" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="560" fillId="0" borderId="452" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="561" fillId="0" borderId="453" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="562" fillId="0" borderId="454" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="563" fillId="0" borderId="455" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="564" fillId="0" borderId="456" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="565" fillId="0" borderId="457" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="566" fillId="0" borderId="458" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="567" fillId="0" borderId="459" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="568" fillId="0" borderId="460" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="569" fillId="0" borderId="461" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="570" fillId="0" borderId="462" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="571" fillId="0" borderId="463" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="572" fillId="0" borderId="464" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="573" fillId="0" borderId="465" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="574" fillId="0" borderId="466" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="575" fillId="0" borderId="467" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="576" fillId="0" borderId="468" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="577" fillId="0" borderId="469" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="578" fillId="0" borderId="470" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="579" fillId="0" borderId="471" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="580" fillId="0" borderId="472" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="581" fillId="0" borderId="473" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="582" fillId="0" borderId="474" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="583" fillId="0" borderId="475" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="584" fillId="0" borderId="476" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="585" fillId="0" borderId="477" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="586" fillId="0" borderId="478" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="587" fillId="0" borderId="479" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="588" fillId="0" borderId="480" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="589" fillId="0" borderId="481" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="590" fillId="0" borderId="482" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="591" fillId="0" borderId="483" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="592" fillId="0" borderId="484" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="593" fillId="0" borderId="485" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="594" fillId="0" borderId="486" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="595" fillId="0" borderId="487" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="596" fillId="0" borderId="488" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="597" fillId="0" borderId="489" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="598" fillId="0" borderId="490" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="599" fillId="0" borderId="491" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="600" fillId="0" borderId="492" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="601" fillId="0" borderId="493" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="602" fillId="0" borderId="494" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="603" fillId="0" borderId="495" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="604" fillId="0" borderId="496" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="605" fillId="0" borderId="497" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="606" fillId="0" borderId="498" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="608" fillId="0" borderId="499" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="610" fillId="0" borderId="500" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="612" fillId="0" borderId="501" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="614" fillId="0" borderId="502" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="616" fillId="0" borderId="503" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="618" fillId="0" borderId="504" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="620" fillId="0" borderId="505" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="622" fillId="0" borderId="506" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="624" fillId="0" borderId="507" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="626" fillId="0" borderId="508" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="628" fillId="0" borderId="509" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="630" fillId="0" borderId="510" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="632" fillId="0" borderId="511" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="634" fillId="0" borderId="512" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="636" fillId="0" borderId="513" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="638" fillId="0" borderId="514" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="640" fillId="0" borderId="515" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="642" fillId="0" borderId="516" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="644" fillId="0" borderId="517" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="646" fillId="0" borderId="518" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="648" fillId="0" borderId="519" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="650" fillId="0" borderId="520" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="652" fillId="0" borderId="521" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="654" fillId="0" borderId="522" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="656" fillId="0" borderId="523" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="658" fillId="0" borderId="524" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="660" fillId="0" borderId="525" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="662" fillId="0" borderId="526" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="664" fillId="0" borderId="527" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="666" fillId="0" borderId="528" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="668" fillId="0" borderId="529" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="670" fillId="0" borderId="530" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="672" fillId="0" borderId="531" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="674" fillId="0" borderId="532" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="676" fillId="0" borderId="533" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="678" fillId="0" borderId="534" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="679" fillId="116" borderId="535" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="680" fillId="117" borderId="536" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="681" fillId="118" borderId="537" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="682" fillId="119" borderId="538" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="683" fillId="120" borderId="539" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="684" fillId="121" borderId="540" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="685" fillId="122" borderId="541" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="686" fillId="123" borderId="542" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="687" fillId="124" borderId="543" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="688" fillId="125" borderId="544" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="689" fillId="126" borderId="545" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="690" fillId="127" borderId="546" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="691" fillId="128" borderId="547" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="692" fillId="129" borderId="548" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="693" fillId="130" borderId="549" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="694" fillId="131" borderId="550" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="695" fillId="132" borderId="551" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="696" fillId="133" borderId="552" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="697" fillId="134" borderId="553" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="698" fillId="135" borderId="554" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="699" fillId="136" borderId="555" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="700" fillId="137" borderId="556" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="701" fillId="138" borderId="557" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="702" fillId="139" borderId="558" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="703" fillId="140" borderId="559" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="704" fillId="141" borderId="560" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="705" fillId="142" borderId="561" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="706" fillId="143" borderId="562" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="707" fillId="144" borderId="563" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="708" fillId="145" borderId="564" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="709" fillId="146" borderId="565" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="710" fillId="147" borderId="566" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="711" fillId="148" borderId="567" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="712" fillId="149" borderId="568" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="713" fillId="150" borderId="569" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="714" fillId="151" borderId="570" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="715" fillId="152" borderId="571" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="716" fillId="153" borderId="572" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="717" fillId="0" borderId="573" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="718" fillId="0" borderId="574" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="719" fillId="0" borderId="575" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="720" fillId="0" borderId="576" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="721" fillId="0" borderId="577" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="722" fillId="0" borderId="578" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="723" fillId="0" borderId="579" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="724" fillId="0" borderId="580" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="725" fillId="0" borderId="581" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="726" fillId="0" borderId="582" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="727" fillId="0" borderId="583" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="728" fillId="0" borderId="584" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="729" fillId="0" borderId="585" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="730" fillId="0" borderId="586" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="731" fillId="0" borderId="587" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="732" fillId="0" borderId="588" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="733" fillId="0" borderId="589" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="734" fillId="0" borderId="590" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="735" fillId="0" borderId="591" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="736" fillId="0" borderId="592" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="737" fillId="0" borderId="593" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="738" fillId="0" borderId="594" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="739" fillId="0" borderId="595" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="740" fillId="0" borderId="596" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="741" fillId="0" borderId="597" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="742" fillId="0" borderId="598" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="743" fillId="0" borderId="599" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="744" fillId="0" borderId="600" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="745" fillId="0" borderId="601" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="746" fillId="0" borderId="602" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="747" fillId="0" borderId="603" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="748" fillId="0" borderId="604" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="749" fillId="0" borderId="605" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="750" fillId="0" borderId="606" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="751" fillId="0" borderId="607" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="752" fillId="0" borderId="608" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="753" fillId="0" borderId="609" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="754" fillId="0" borderId="610" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="755" fillId="0" borderId="611" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="756" fillId="0" borderId="612" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="757" fillId="0" borderId="613" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="758" fillId="0" borderId="614" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="759" fillId="0" borderId="615" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="760" fillId="0" borderId="616" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="761" fillId="0" borderId="617" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="762" fillId="0" borderId="618" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="763" fillId="0" borderId="619" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="764" fillId="0" borderId="620" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="765" fillId="0" borderId="621" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="766" fillId="0" borderId="622" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="767" fillId="0" borderId="623" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="768" fillId="0" borderId="624" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="769" fillId="0" borderId="625" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="770" fillId="0" borderId="626" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="771" fillId="0" borderId="627" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="772" fillId="0" borderId="628" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="773" fillId="0" borderId="629" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="774" fillId="0" borderId="630" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="775" fillId="0" borderId="631" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="776" fillId="0" borderId="632" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="777" fillId="0" borderId="633" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="778" fillId="0" borderId="634" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="779" fillId="0" borderId="635" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="780" fillId="0" borderId="636" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="781" fillId="0" borderId="637" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="782" fillId="0" borderId="638" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="783" fillId="0" borderId="639" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="784" fillId="0" borderId="640" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="785" fillId="0" borderId="641" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="787" fillId="0" borderId="642" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="789" fillId="0" borderId="643" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="791" fillId="0" borderId="644" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="793" fillId="0" borderId="645" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="795" fillId="0" borderId="646" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="797" fillId="0" borderId="647" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="799" fillId="0" borderId="648" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="801" fillId="0" borderId="649" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="803" fillId="0" borderId="650" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="805" fillId="0" borderId="651" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="807" fillId="0" borderId="652" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="809" fillId="0" borderId="653" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="811" fillId="0" borderId="654" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="813" fillId="0" borderId="655" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="815" fillId="0" borderId="656" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="817" fillId="0" borderId="657" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="819" fillId="0" borderId="658" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="821" fillId="0" borderId="659" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="823" fillId="0" borderId="660" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="825" fillId="0" borderId="661" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="827" fillId="0" borderId="662" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="829" fillId="0" borderId="663" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="831" fillId="0" borderId="664" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="833" fillId="0" borderId="665" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="835" fillId="0" borderId="666" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="837" fillId="0" borderId="667" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="839" fillId="0" borderId="668" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="841" fillId="0" borderId="669" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="843" fillId="0" borderId="670" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="845" fillId="0" borderId="671" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="847" fillId="0" borderId="672" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="849" fillId="0" borderId="673" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="851" fillId="0" borderId="674" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="853" fillId="0" borderId="675" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="855" fillId="0" borderId="676" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="857" fillId="0" borderId="677" xfId="0" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="858" fillId="154" borderId="678" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="859" fillId="155" borderId="679" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="860" fillId="156" borderId="680" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="861" fillId="157" borderId="681" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="862" fillId="158" borderId="682" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="863" fillId="159" borderId="683" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="864" fillId="160" borderId="684" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="865" fillId="161" borderId="685" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="866" fillId="162" borderId="686" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="867" fillId="163" borderId="687" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="868" fillId="164" borderId="688" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="869" fillId="165" borderId="689" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="870" fillId="166" borderId="690" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="871" fillId="167" borderId="691" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="872" fillId="168" borderId="692" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="873" fillId="169" borderId="693" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="874" fillId="170" borderId="694" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="875" fillId="171" borderId="695" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="876" fillId="172" borderId="696" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="877" fillId="173" borderId="697" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="878" fillId="174" borderId="698" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="879" fillId="175" borderId="699" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="880" fillId="176" borderId="700" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="881" fillId="177" borderId="701" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="882" fillId="178" borderId="702" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="883" fillId="179" borderId="703" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="884" fillId="180" borderId="704" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="885" fillId="181" borderId="705" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="886" fillId="182" borderId="706" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="887" fillId="183" borderId="707" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="888" fillId="184" borderId="708" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="889" fillId="185" borderId="709" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="890" fillId="186" borderId="710" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="49" fontId="891" fillId="187" borderId="711" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="892" fillId="188" borderId="712" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="893" fillId="189" borderId="713" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="894" fillId="190" borderId="714" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="895" fillId="191" borderId="715" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5283,134 +13063,134 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="2">
-      <c r="A2" s="249" t="s">
+      <c r="A2" s="535" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="285" t="s">
+      <c r="B2" s="571" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="286" t="s">
+      <c r="C2" s="572" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="252" t="s">
+      <c r="A3" s="538" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="253">
+      <c r="B3" s="539">
         <v>49.145664215087891</v>
       </c>
-      <c r="C3" s="254">
+      <c r="C3" s="540">
         <v>48.996662139892578</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="255" t="s">
+      <c r="A4" s="541" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="256">
+      <c r="B4" s="542">
         <v>41.203716278076172</v>
       </c>
-      <c r="C4" s="257">
+      <c r="C4" s="543">
         <v>41.931602478027344</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="258" t="s">
+      <c r="A5" s="544" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="259">
+      <c r="B5" s="545">
         <v>39.242782592773438</v>
       </c>
-      <c r="C5" s="260">
+      <c r="C5" s="546">
         <v>40.770774841308594</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="261" t="s">
+      <c r="A6" s="547" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="262">
+      <c r="B6" s="548">
         <v>37.107841491699219</v>
       </c>
-      <c r="C6" s="263">
+      <c r="C6" s="549">
         <v>39.170032501220703</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="264" t="s">
+      <c r="A7" s="550" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="265">
+      <c r="B7" s="551">
         <v>41.133708953857422</v>
       </c>
-      <c r="C7" s="266">
+      <c r="C7" s="552">
         <v>42.650848388671875</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="267" t="s">
+      <c r="A8" s="553" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="268">
+      <c r="B8" s="554">
         <v>50.209423065185547</v>
       </c>
-      <c r="C8" s="269">
+      <c r="C8" s="555">
         <v>51.952434539794922</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="270" t="s">
+      <c r="A9" s="556" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="271">
+      <c r="B9" s="557">
         <v>42.596733093261719</v>
       </c>
-      <c r="C9" s="272">
+      <c r="C9" s="558">
         <v>44.057670593261719</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="273" t="s">
+      <c r="A10" s="559" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="274">
+      <c r="B10" s="560">
         <v>43.147396087646484</v>
       </c>
-      <c r="C10" s="275">
+      <c r="C10" s="561">
         <v>44.964653015136719</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="276" t="s">
+      <c r="A11" s="562" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="277">
+      <c r="B11" s="563">
         <v>41.584541320800781</v>
       </c>
-      <c r="C11" s="278">
+      <c r="C11" s="564">
         <v>44.032798767089844</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="279" t="s">
+      <c r="A12" s="565" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="280">
+      <c r="B12" s="566">
         <v>37.312328338623047</v>
       </c>
-      <c r="C12" s="281">
+      <c r="C12" s="567">
         <v>37.4019775390625</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="282" t="s">
+      <c r="A13" s="568" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="283">
+      <c r="B13" s="569">
         <v>41.605014801025391</v>
       </c>
-      <c r="C13" s="284">
+      <c r="C13" s="570">
         <v>43.212192535400391</v>
       </c>
     </row>
@@ -5421,4 +13201,148 @@
     <mergeCell ref="A2:A2"/>
   </mergeCells>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:C13"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" s="678" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="714"/>
+      <c r="C2" s="715" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="681" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="682">
+        <v>2.4760749340057373</v>
+      </c>
+      <c r="C3" s="683">
+        <v>1.2639836072921753</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="684" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="685">
+        <v>0.9917711615562439</v>
+      </c>
+      <c r="C4" s="686">
+        <v>0.78465735912322998</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="687" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="688">
+        <v>0.80948883295059204</v>
+      </c>
+      <c r="C5" s="689">
+        <v>0.81827241182327271</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="690" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="691">
+        <v>1.1340783834457397</v>
+      </c>
+      <c r="C6" s="692">
+        <v>0.87740892171859741</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="693" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="694">
+        <v>1.0792199373245239</v>
+      </c>
+      <c r="C7" s="695">
+        <v>0.77040165662765503</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="696" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="697">
+        <v>1.0194882154464722</v>
+      </c>
+      <c r="C8" s="698">
+        <v>1.0360426902770996</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="699" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="700">
+        <v>0.69932383298873901</v>
+      </c>
+      <c r="C9" s="701">
+        <v>0.64347434043884277</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="702" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="703">
+        <v>0.74062252044677734</v>
+      </c>
+      <c r="C10" s="704">
+        <v>0.72569942474365234</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="705" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="706">
+        <v>0.55763649940490723</v>
+      </c>
+      <c r="C11" s="707">
+        <v>0.50938671827316284</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="708" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="709">
+        <v>2.0310349464416504</v>
+      </c>
+      <c r="C12" s="710">
+        <v>2.3408341407775879</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="711" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="712">
+        <v>0.38434901833534241</v>
+      </c>
+      <c r="C13" s="713">
+        <v>0.26571816205978394</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:B2"/>
+    <mergeCell ref="C2:C2"/>
+    <mergeCell ref="A2:A2"/>
+  </mergeCells>
+</worksheet>
 </file>